--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -451,20 +451,20 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B50" activeCellId="0" sqref="B50"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.4048582995952"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.368421052632"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.0971659919028"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5222672064777"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9595141700405"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -217,79 +217,79 @@
     <t xml:space="preserve">SE SUBROGA EN LA POSICIÓN</t>
   </si>
   <si>
+    <t xml:space="preserve">SE TIENEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR PERSONADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POR PERSONADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENER POR PERSONADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN ESTE PROCESO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENER POR PERSONADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENERLO POR COMPARECIDO Y PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIENDO POR PERSONADA Y PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIENDO POR PERSONADO Y PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIÉNDOLA POR PERSONADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIENDOLA POR PERSONADA Y PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIÉNDOLE POR PERSONADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO SUCESOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIÉNDOLE POR PERSONADO Y PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIENDOSE POR PARTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TENIÉNDOSE POR PERSONADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMO SUCESORA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ADMITIRÁ LA SUBROGRACIÓN PROCESAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUPE EN EL PRESENTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA POSICION DE PARTE EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCUPARÁ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA POSICIÓN DEL TRANSMITENTE PARTE EJECUTANTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN NOMBRE Y REPRESENTACION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TÉNGASELE POR COMPARECIDA EN REPRESENTACION DE</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE TIENE POR OPERADA LA SUCESION PROCESAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE TIENEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR PERSONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POR PERSONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENER POR PERSONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN ESTE PROCESO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENER POR PERSONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENERLO POR COMPARECIDO Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIENDO POR PERSONADA Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIENDO POR PERSONADO Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIÉNDOLA POR PERSONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIENDOLA POR PERSONADA Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIÉNDOLE POR PERSONADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMO SUCESOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIÉNDOLE POR PERSONADO Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIENDOSE POR PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TENIÉNDOSE POR PERSONADA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COMO SUCESORA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE ADMITIRÁ LA SUBROGRACIÓN PROCESAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCUPE EN EL PRESENTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA POSICION DE PARTE EJECUTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OCUPARÁ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA POSICIÓN DEL TRANSMITENTE PARTE EJECUTANTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EN NOMBRE Y REPRESENTACION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉNGASELE POR COMPARECIDA EN REPRESENTACION DE</t>
   </si>
   <si>
     <t xml:space="preserve">TICKETS</t>
@@ -451,20 +451,20 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.3967611336032"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.368421052632"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.226720647773"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.1740890688259"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1116,8 +1116,12 @@
       <c r="B46" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
@@ -1126,23 +1130,27 @@
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>4</v>
@@ -1154,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1162,19 +1170,19 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1182,30 +1190,26 @@
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D50" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
@@ -1214,14 +1218,10 @@
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
@@ -1253,12 +1253,11 @@
       <c r="A55" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="B55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1266,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1287,18 +1286,15 @@
       <c r="A58" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="F58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1307,6 +1303,12 @@
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="0" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1315,12 +1317,6 @@
         <v>2</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="0" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1339,18 +1335,18 @@
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="C63" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="0" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1358,8 +1354,11 @@
       <c r="A65" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1367,45 +1366,66 @@
         <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>85</v>
       </c>
+      <c r="E66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="6" t="s">
         <v>87</v>
       </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D68" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -194,12 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">SE TIENE POR PERSONADA Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE TIENE POR PERSONADO Y PARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GARCIA ABASCAL</t>
   </si>
   <si>
     <t xml:space="preserve">SE TIENE POR DESIGNADA</t>
@@ -449,10 +443,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z76"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1054,7 +1048,9 @@
       <c r="B42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D42" s="2" t="s">
         <v>59</v>
       </c>
@@ -1082,13 +1078,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1098,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>4</v>
@@ -1114,35 +1110,39 @@
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="E47" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1150,19 +1150,19 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E48" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,30 +1170,26 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
@@ -1204,12 +1200,8 @@
       <c r="B51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
@@ -1218,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="2"/>
@@ -1230,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="2"/>
@@ -1241,12 +1233,11 @@
       <c r="A54" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="B54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1254,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -1265,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -1275,19 +1266,16 @@
       <c r="A57" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="F57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>75</v>
+      <c r="B58" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1295,7 +1283,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1305,19 +1299,13 @@
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C60" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1325,6 +1313,12 @@
         <v>2</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1335,18 +1329,15 @@
       <c r="B63" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1355,18 +1346,27 @@
         <v>2</v>
       </c>
       <c r="B65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="E65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>4</v>
@@ -1374,26 +1374,38 @@
       <c r="D66" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>86</v>
-      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -1422,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1450,12 +1462,8 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>89</v>
-      </c>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -1482,45 +1490,25 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B71" s="2"/>
+      <c r="A71" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>2</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1536,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1544,17 +1532,10 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -451,14 +451,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.8461538461539"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.226720647773"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2753036437247"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -451,14 +451,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.2753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="102.085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.5951417004049"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.048582995951"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.8097165991903"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.8906882591093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
   <si>
     <t xml:space="preserve">NOTIFICATION TYPE</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">SE TIENE POR OPERADA LA SUCESION PROCESAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISPONER QUE</t>
   </si>
   <si>
     <t xml:space="preserve">TICKETS</t>
@@ -443,21 +446,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z65536"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.5951417004049"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.048582995951"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.906882591093"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.8097165991903"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1461,12 +1465,20 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
+      <c r="A69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="D69" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
@@ -1489,18 +1501,38 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="2"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -1534,7 +1566,14 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
+++ b/new_classification_db/N2 - TRANSFER OF LEGAL REPRESENTATION PERMITTED.msg.xlsx
@@ -320,7 +320,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -343,7 +342,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -448,18 +446,18 @@
   </sheetPr>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.906882591093"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.3441295546559"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="75.7246963562753"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.67611336032389"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="1.39271255060729"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="80.5951417004049"/>
     <col collapsed="false" hidden="false" max="26" min="7" style="0" width="10.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
